--- a/Res_Trans_Flota_Esc_1.xlsx
+++ b/Res_Trans_Flota_Esc_1.xlsx
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.44</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="6">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.97</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="9">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.51</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="10">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.97</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="11">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/Res_Trans_Flota_Esc_1.xlsx
+++ b/Res_Trans_Flota_Esc_1.xlsx
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.5</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="9">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.5</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="11">
